--- a/Graphs/M_LH2_sweep_results.xlsx
+++ b/Graphs/M_LH2_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="162" uniqueCount="162">
   <si>
     <t>Lh2 Feed pressure (bar)_ 1</t>
   </si>
@@ -229,6 +229,276 @@
   </si>
   <si>
     <t>LH2 used_18</t>
+  </si>
+  <si>
+    <t>Tank maximum (kg)_ 1</t>
+  </si>
+  <si>
+    <t>Tank maximum (kg)_ 2</t>
+  </si>
+  <si>
+    <t>Tank maximum (kg)_ 3</t>
+  </si>
+  <si>
+    <t>Tank maximum (kg)_ 4</t>
+  </si>
+  <si>
+    <t>Tank maximum (kg)_ 5</t>
+  </si>
+  <si>
+    <t>Tank maximum (kg)_ 6</t>
+  </si>
+  <si>
+    <t>Tank maximum (kg)_ 7</t>
+  </si>
+  <si>
+    <t>Tank maximum (kg)_ 8</t>
+  </si>
+  <si>
+    <t>Tank maximum (kg)_ 9</t>
+  </si>
+  <si>
+    <t>Tank maximum (kg)_10</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 consumed warm tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 received warm tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_ 9</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for warm tank refuel_10</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 consumed cold tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 1</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 2</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 3</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 4</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 5</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 6</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 7</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 8</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_ 9</t>
+  </si>
+  <si>
+    <t>LH2 received cold tank refuel (kg)_10</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 1</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 2</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 3</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 4</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 5</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 6</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 7</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 8</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_ 9</t>
+  </si>
+  <si>
+    <t>Fraction of useful LH2 for cold tank refuel_10</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 1</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 2</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 3</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 4</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 5</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 6</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 7</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 8</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_ 9</t>
+  </si>
+  <si>
+    <t>Time taken for warm tank refuel (s)_10</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 1</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 2</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 3</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 4</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 5</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 6</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 7</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 8</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_ 9</t>
+  </si>
+  <si>
+    <t>Time taken for cold tank refuel (s)_10</t>
   </si>
 </sst>
 </file>
@@ -274,302 +544,374 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BT2"/>
+  <dimension ref="A1:CL2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" customWidth="true"/>
-    <col min="2" max="2" width="24.28515625" customWidth="true"/>
-    <col min="3" max="3" width="24.28515625" customWidth="true"/>
-    <col min="4" max="4" width="24.28515625" customWidth="true"/>
-    <col min="5" max="5" width="24.28515625" customWidth="true"/>
-    <col min="6" max="6" width="24.28515625" customWidth="true"/>
-    <col min="7" max="7" width="24.28515625" customWidth="true"/>
-    <col min="8" max="8" width="24.28515625" customWidth="true"/>
-    <col min="9" max="9" width="24.28515625" customWidth="true"/>
-    <col min="10" max="10" width="24.85546875" customWidth="true"/>
-    <col min="11" max="11" width="24.85546875" customWidth="true"/>
-    <col min="12" max="12" width="24.85546875" customWidth="true"/>
-    <col min="13" max="13" width="24.85546875" customWidth="true"/>
-    <col min="14" max="14" width="24.85546875" customWidth="true"/>
-    <col min="15" max="15" width="24.85546875" customWidth="true"/>
-    <col min="16" max="16" width="24.85546875" customWidth="true"/>
-    <col min="17" max="17" width="24.85546875" customWidth="true"/>
-    <col min="18" max="18" width="24.85546875" customWidth="true"/>
-    <col min="19" max="19" width="10.5703125" customWidth="true"/>
-    <col min="20" max="20" width="10.5703125" customWidth="true"/>
-    <col min="21" max="21" width="10.5703125" customWidth="true"/>
-    <col min="22" max="22" width="10.5703125" customWidth="true"/>
-    <col min="23" max="23" width="10.5703125" customWidth="true"/>
-    <col min="24" max="24" width="10.5703125" customWidth="true"/>
-    <col min="25" max="25" width="10.5703125" customWidth="true"/>
-    <col min="26" max="26" width="10.5703125" customWidth="true"/>
-    <col min="27" max="27" width="10.5703125" customWidth="true"/>
-    <col min="28" max="28" width="11.140625" customWidth="true"/>
-    <col min="29" max="29" width="11.140625" customWidth="true"/>
-    <col min="30" max="30" width="11.140625" customWidth="true"/>
-    <col min="31" max="31" width="11.140625" customWidth="true"/>
-    <col min="32" max="32" width="11.140625" customWidth="true"/>
-    <col min="33" max="33" width="11.140625" customWidth="true"/>
-    <col min="34" max="34" width="11.140625" customWidth="true"/>
-    <col min="35" max="35" width="11.140625" customWidth="true"/>
-    <col min="36" max="36" width="11.140625" customWidth="true"/>
-    <col min="37" max="37" width="9.28515625" customWidth="true"/>
-    <col min="38" max="38" width="9.28515625" customWidth="true"/>
-    <col min="39" max="39" width="9.28515625" customWidth="true"/>
-    <col min="40" max="40" width="9.28515625" customWidth="true"/>
-    <col min="41" max="41" width="9.28515625" customWidth="true"/>
-    <col min="42" max="42" width="9.28515625" customWidth="true"/>
-    <col min="43" max="43" width="9.28515625" customWidth="true"/>
-    <col min="44" max="44" width="9.28515625" customWidth="true"/>
-    <col min="45" max="45" width="9.28515625" customWidth="true"/>
-    <col min="46" max="46" width="9.85546875" customWidth="true"/>
-    <col min="47" max="47" width="9.85546875" customWidth="true"/>
-    <col min="48" max="48" width="9.85546875" customWidth="true"/>
-    <col min="49" max="49" width="9.85546875" customWidth="true"/>
-    <col min="50" max="50" width="9.85546875" customWidth="true"/>
-    <col min="51" max="51" width="9.85546875" customWidth="true"/>
-    <col min="52" max="52" width="9.85546875" customWidth="true"/>
-    <col min="53" max="53" width="9.85546875" customWidth="true"/>
-    <col min="54" max="54" width="9.85546875" customWidth="true"/>
-    <col min="55" max="55" width="11.42578125" customWidth="true"/>
-    <col min="56" max="56" width="11.42578125" customWidth="true"/>
-    <col min="57" max="57" width="11.42578125" customWidth="true"/>
-    <col min="58" max="58" width="11.42578125" customWidth="true"/>
-    <col min="59" max="59" width="11.42578125" customWidth="true"/>
-    <col min="60" max="60" width="11.42578125" customWidth="true"/>
-    <col min="61" max="61" width="11.42578125" customWidth="true"/>
-    <col min="62" max="62" width="11.42578125" customWidth="true"/>
-    <col min="63" max="63" width="11.42578125" customWidth="true"/>
-    <col min="64" max="64" width="12" customWidth="true"/>
-    <col min="65" max="65" width="12" customWidth="true"/>
-    <col min="66" max="66" width="12" customWidth="true"/>
-    <col min="67" max="67" width="12" customWidth="true"/>
-    <col min="68" max="68" width="12" customWidth="true"/>
-    <col min="69" max="69" width="12" customWidth="true"/>
-    <col min="70" max="70" width="12" customWidth="true"/>
-    <col min="71" max="71" width="12" customWidth="true"/>
-    <col min="72" max="72" width="12" customWidth="true"/>
+    <col min="1" max="1" width="20.85546875" customWidth="true"/>
+    <col min="2" max="2" width="20.85546875" customWidth="true"/>
+    <col min="3" max="3" width="20.85546875" customWidth="true"/>
+    <col min="4" max="4" width="20.85546875" customWidth="true"/>
+    <col min="5" max="5" width="20.85546875" customWidth="true"/>
+    <col min="6" max="6" width="20.85546875" customWidth="true"/>
+    <col min="7" max="7" width="20.85546875" customWidth="true"/>
+    <col min="8" max="8" width="20.85546875" customWidth="true"/>
+    <col min="9" max="9" width="20.85546875" customWidth="true"/>
+    <col min="10" max="10" width="21.42578125" customWidth="true"/>
+    <col min="11" max="11" width="35.7109375" customWidth="true"/>
+    <col min="12" max="12" width="35.7109375" customWidth="true"/>
+    <col min="13" max="13" width="35.7109375" customWidth="true"/>
+    <col min="14" max="14" width="35.7109375" customWidth="true"/>
+    <col min="15" max="15" width="35.7109375" customWidth="true"/>
+    <col min="16" max="16" width="35.7109375" customWidth="true"/>
+    <col min="17" max="17" width="35.7109375" customWidth="true"/>
+    <col min="18" max="18" width="35.7109375" customWidth="true"/>
+    <col min="19" max="19" width="35.7109375" customWidth="true"/>
+    <col min="20" max="20" width="36.28515625" customWidth="true"/>
+    <col min="21" max="21" width="34.28515625" customWidth="true"/>
+    <col min="22" max="22" width="34.28515625" customWidth="true"/>
+    <col min="23" max="23" width="34.28515625" customWidth="true"/>
+    <col min="24" max="24" width="34.28515625" customWidth="true"/>
+    <col min="25" max="25" width="34.28515625" customWidth="true"/>
+    <col min="26" max="26" width="34.28515625" customWidth="true"/>
+    <col min="27" max="27" width="34.28515625" customWidth="true"/>
+    <col min="28" max="28" width="34.28515625" customWidth="true"/>
+    <col min="29" max="29" width="34.28515625" customWidth="true"/>
+    <col min="30" max="30" width="34.85546875" customWidth="true"/>
+    <col min="31" max="31" width="41.140625" customWidth="true"/>
+    <col min="32" max="32" width="41.140625" customWidth="true"/>
+    <col min="33" max="33" width="41.140625" customWidth="true"/>
+    <col min="34" max="34" width="41.140625" customWidth="true"/>
+    <col min="35" max="35" width="41.140625" customWidth="true"/>
+    <col min="36" max="36" width="41.140625" customWidth="true"/>
+    <col min="37" max="37" width="41.140625" customWidth="true"/>
+    <col min="38" max="38" width="41.140625" customWidth="true"/>
+    <col min="39" max="39" width="41.140625" customWidth="true"/>
+    <col min="40" max="40" width="41.7109375" customWidth="true"/>
+    <col min="41" max="41" width="34.42578125" customWidth="true"/>
+    <col min="42" max="42" width="34.42578125" customWidth="true"/>
+    <col min="43" max="43" width="34.42578125" customWidth="true"/>
+    <col min="44" max="44" width="34.42578125" customWidth="true"/>
+    <col min="45" max="45" width="34.42578125" customWidth="true"/>
+    <col min="46" max="46" width="34.42578125" customWidth="true"/>
+    <col min="47" max="47" width="34.42578125" customWidth="true"/>
+    <col min="48" max="48" width="34.42578125" customWidth="true"/>
+    <col min="49" max="49" width="34.42578125" customWidth="true"/>
+    <col min="50" max="50" width="35" customWidth="true"/>
+    <col min="51" max="51" width="33" customWidth="true"/>
+    <col min="52" max="52" width="33" customWidth="true"/>
+    <col min="53" max="53" width="33" customWidth="true"/>
+    <col min="54" max="54" width="33" customWidth="true"/>
+    <col min="55" max="55" width="33" customWidth="true"/>
+    <col min="56" max="56" width="33" customWidth="true"/>
+    <col min="57" max="57" width="33" customWidth="true"/>
+    <col min="58" max="58" width="33" customWidth="true"/>
+    <col min="59" max="59" width="33" customWidth="true"/>
+    <col min="60" max="60" width="33.5703125" customWidth="true"/>
+    <col min="61" max="61" width="39.85546875" customWidth="true"/>
+    <col min="62" max="62" width="39.85546875" customWidth="true"/>
+    <col min="63" max="63" width="39.85546875" customWidth="true"/>
+    <col min="64" max="64" width="39.85546875" customWidth="true"/>
+    <col min="65" max="65" width="39.85546875" customWidth="true"/>
+    <col min="66" max="66" width="39.85546875" customWidth="true"/>
+    <col min="67" max="67" width="39.85546875" customWidth="true"/>
+    <col min="68" max="68" width="39.85546875" customWidth="true"/>
+    <col min="69" max="69" width="39.85546875" customWidth="true"/>
+    <col min="70" max="70" width="40.42578125" customWidth="true"/>
+    <col min="71" max="71" width="34.7109375" customWidth="true"/>
+    <col min="72" max="72" width="34.7109375" customWidth="true"/>
+    <col min="73" max="73" width="34.7109375" customWidth="true"/>
+    <col min="74" max="74" width="34.7109375" customWidth="true"/>
+    <col min="75" max="75" width="34.7109375" customWidth="true"/>
+    <col min="76" max="76" width="34.7109375" customWidth="true"/>
+    <col min="77" max="77" width="34.7109375" customWidth="true"/>
+    <col min="78" max="78" width="34.7109375" customWidth="true"/>
+    <col min="79" max="79" width="34.7109375" customWidth="true"/>
+    <col min="80" max="80" width="35.28515625" customWidth="true"/>
+    <col min="81" max="81" width="33.42578125" customWidth="true"/>
+    <col min="82" max="82" width="33.42578125" customWidth="true"/>
+    <col min="83" max="83" width="33.42578125" customWidth="true"/>
+    <col min="84" max="84" width="33.42578125" customWidth="true"/>
+    <col min="85" max="85" width="33.42578125" customWidth="true"/>
+    <col min="86" max="86" width="33.42578125" customWidth="true"/>
+    <col min="87" max="87" width="33.42578125" customWidth="true"/>
+    <col min="88" max="88" width="33.42578125" customWidth="true"/>
+    <col min="89" max="89" width="33.42578125" customWidth="true"/>
+    <col min="90" max="90" width="34" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>75</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>78</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>79</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>80</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>81</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>83</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>16</v>
+        <v>88</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>17</v>
+        <v>89</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>20</v>
+        <v>92</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>21</v>
+        <v>93</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>24</v>
+        <v>96</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>25</v>
+        <v>97</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="AE1" s="0" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="AF1" s="0" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="AG1" s="0" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="AH1" s="0" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="AI1" s="0" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="AJ1" s="0" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="AK1" s="0" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="AL1" s="0" t="s">
-        <v>37</v>
+        <v>109</v>
       </c>
       <c r="AM1" s="0" t="s">
-        <v>38</v>
+        <v>110</v>
       </c>
       <c r="AN1" s="0" t="s">
-        <v>39</v>
+        <v>111</v>
       </c>
       <c r="AO1" s="0" t="s">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="AP1" s="0" t="s">
-        <v>41</v>
+        <v>113</v>
       </c>
       <c r="AQ1" s="0" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="AR1" s="0" t="s">
-        <v>43</v>
+        <v>115</v>
       </c>
       <c r="AS1" s="0" t="s">
-        <v>44</v>
+        <v>116</v>
       </c>
       <c r="AT1" s="0" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="AU1" s="0" t="s">
-        <v>46</v>
+        <v>118</v>
       </c>
       <c r="AV1" s="0" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="AW1" s="0" t="s">
-        <v>48</v>
+        <v>120</v>
       </c>
       <c r="AX1" s="0" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
       <c r="AY1" s="0" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="AZ1" s="0" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="BA1" s="0" t="s">
-        <v>52</v>
+        <v>124</v>
       </c>
       <c r="BB1" s="0" t="s">
-        <v>53</v>
+        <v>125</v>
       </c>
       <c r="BC1" s="0" t="s">
-        <v>54</v>
+        <v>126</v>
       </c>
       <c r="BD1" s="0" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="BE1" s="0" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="BF1" s="0" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="BG1" s="0" t="s">
-        <v>58</v>
+        <v>130</v>
       </c>
       <c r="BH1" s="0" t="s">
-        <v>59</v>
+        <v>131</v>
       </c>
       <c r="BI1" s="0" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="BJ1" s="0" t="s">
-        <v>61</v>
+        <v>133</v>
       </c>
       <c r="BK1" s="0" t="s">
-        <v>62</v>
+        <v>134</v>
       </c>
       <c r="BL1" s="0" t="s">
-        <v>63</v>
+        <v>135</v>
       </c>
       <c r="BM1" s="0" t="s">
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="BN1" s="0" t="s">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="BO1" s="0" t="s">
-        <v>66</v>
+        <v>138</v>
       </c>
       <c r="BP1" s="0" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="BQ1" s="0" t="s">
-        <v>68</v>
+        <v>140</v>
       </c>
       <c r="BR1" s="0" t="s">
-        <v>69</v>
+        <v>141</v>
       </c>
       <c r="BS1" s="0" t="s">
-        <v>70</v>
+        <v>142</v>
       </c>
       <c r="BT1" s="0" t="s">
-        <v>71</v>
+        <v>143</v>
+      </c>
+      <c r="BU1" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="BV1" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="BW1" s="0" t="s">
+        <v>146</v>
+      </c>
+      <c r="BX1" s="0" t="s">
+        <v>147</v>
+      </c>
+      <c r="BY1" s="0" t="s">
+        <v>148</v>
+      </c>
+      <c r="BZ1" s="0" t="s">
+        <v>149</v>
+      </c>
+      <c r="CA1" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="CB1" s="0" t="s">
+        <v>151</v>
+      </c>
+      <c r="CC1" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="CD1" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="CE1" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="CF1" s="0" t="s">
+        <v>155</v>
+      </c>
+      <c r="CG1" s="0" t="s">
+        <v>156</v>
+      </c>
+      <c r="CH1" s="0" t="s">
+        <v>157</v>
+      </c>
+      <c r="CI1" s="0" t="s">
+        <v>158</v>
+      </c>
+      <c r="CJ1" s="0" t="s">
+        <v>159</v>
+      </c>
+      <c r="CK1" s="0" t="s">
+        <v>160</v>
+      </c>
+      <c r="CL1" s="0" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="2">
@@ -577,217 +919,271 @@
         <v>16</v>
       </c>
       <c r="B2" s="0">
-        <v>18.842105263157894</v>
+        <v>22</v>
       </c>
       <c r="C2" s="0">
-        <v>21.684210526315788</v>
+        <v>28</v>
       </c>
       <c r="D2" s="0">
-        <v>24.526315789473685</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0">
-        <v>27.368421052631579</v>
+        <v>40</v>
       </c>
       <c r="F2" s="0">
-        <v>30.210526315789473</v>
+        <v>46</v>
       </c>
       <c r="G2" s="0">
-        <v>33.05263157894737</v>
+        <v>52</v>
       </c>
       <c r="H2" s="0">
-        <v>35.89473684210526</v>
+        <v>58</v>
       </c>
       <c r="I2" s="0">
-        <v>38.736842105263158</v>
+        <v>64</v>
       </c>
       <c r="J2" s="0">
-        <v>47.263157894736842</v>
+        <v>70</v>
       </c>
       <c r="K2" s="0">
-        <v>50.10526315789474</v>
+        <v>32.300715734879581</v>
       </c>
       <c r="L2" s="0">
-        <v>52.94736842105263</v>
+        <v>38.212689027332118</v>
       </c>
       <c r="M2" s="0">
-        <v>55.789473684210527</v>
+        <v>44.164492468113117</v>
       </c>
       <c r="N2" s="0">
-        <v>58.631578947368418</v>
+        <v>49.692220190127664</v>
       </c>
       <c r="O2" s="0">
-        <v>61.473684210526315</v>
+        <v>55.715554375199069</v>
       </c>
       <c r="P2" s="0">
-        <v>64.31578947368422</v>
+        <v>61.711308847826949</v>
       </c>
       <c r="Q2" s="0">
-        <v>67.15789473684211</v>
+        <v>67.481650245666046</v>
       </c>
       <c r="R2" s="0">
-        <v>70</v>
+        <v>73.217604552841692</v>
       </c>
       <c r="S2" s="0">
+        <v>78.862791042808595</v>
+      </c>
+      <c r="T2" s="0">
+        <v>84.233693623181367</v>
+      </c>
+      <c r="U2" s="0">
+        <v>15.739573118927872</v>
+      </c>
+      <c r="V2" s="0">
+        <v>21.020218160664072</v>
+      </c>
+      <c r="W2" s="0">
+        <v>27.370999145567637</v>
+      </c>
+      <c r="X2" s="0">
+        <v>32.762892727500571</v>
+      </c>
+      <c r="Y2" s="0">
+        <v>38.534881011201108</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>45.214551873129437</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>50.985164562908565</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>56.741082411367323</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>62.469580639820578</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>67.833086750547366</v>
+      </c>
+      <c r="AE2" s="0">
         <v>0.48728248773545479</v>
       </c>
-      <c r="T2" s="0">
-        <v>0.51727471732338393</v>
-      </c>
-      <c r="U2" s="0">
-        <v>0.54756731493195054</v>
-      </c>
-      <c r="V2" s="0">
-        <v>0.58400155386086494</v>
-      </c>
-      <c r="W2" s="0">
-        <v>0.61411747040744791</v>
-      </c>
-      <c r="X2" s="0">
-        <v>0.63416723001822428</v>
-      </c>
-      <c r="Y2" s="0">
-        <v>0.66158789279275709</v>
-      </c>
-      <c r="Z2" s="0">
-        <v>0.67137125022195787</v>
-      </c>
-      <c r="AA2" s="0">
-        <v>0.68566177343076484</v>
-      </c>
-      <c r="AB2" s="0">
-        <v>0.73696685648518545</v>
-      </c>
-      <c r="AC2" s="0">
-        <v>0.74928074027456026</v>
-      </c>
-      <c r="AD2" s="0">
-        <v>0.75822156054468892</v>
-      </c>
-      <c r="AE2" s="0">
-        <v>0.7677243380584492</v>
-      </c>
       <c r="AF2" s="0">
-        <v>0.77715455120562749</v>
+        <v>0.55008476753962776</v>
       </c>
       <c r="AG2" s="0">
-        <v>0.78528296477575754</v>
+        <v>0.61975124395077275</v>
       </c>
       <c r="AH2" s="0">
-        <v>0.7930021071339729</v>
+        <v>0.65931633970360537</v>
       </c>
       <c r="AI2" s="0">
-        <v>0.79919971792822886</v>
+        <v>0.69163596132778182</v>
       </c>
       <c r="AJ2" s="0">
+        <v>0.73267854332215454</v>
+      </c>
+      <c r="AK2" s="0">
+        <v>0.75554116381709335</v>
+      </c>
+      <c r="AL2" s="0">
+        <v>0.77496502047423388</v>
+      </c>
+      <c r="AM2" s="0">
+        <v>0.79212997427279241</v>
+      </c>
+      <c r="AN2" s="0">
         <v>0.80529635865189575</v>
       </c>
-      <c r="AK2" s="0">
+      <c r="AO2" s="0">
+        <v>29.009793597667041</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>35.019500604369739</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>40.806405041426089</v>
+      </c>
+      <c r="AR2" s="0">
+        <v>46.709884740024407</v>
+      </c>
+      <c r="AS2" s="0">
+        <v>52.589243549787625</v>
+      </c>
+      <c r="AT2" s="0">
+        <v>58.717037780328788</v>
+      </c>
+      <c r="AU2" s="0">
+        <v>64.566142351980147</v>
+      </c>
+      <c r="AV2" s="0">
+        <v>70.378217985194013</v>
+      </c>
+      <c r="AW2" s="0">
+        <v>76.411112845571239</v>
+      </c>
+      <c r="AX2" s="0">
+        <v>82.26711030222809</v>
+      </c>
+      <c r="AY2" s="0">
+        <v>13.945427835408932</v>
+      </c>
+      <c r="AZ2" s="0">
+        <v>19.683746191251011</v>
+      </c>
+      <c r="BA2" s="0">
+        <v>25.137713520934231</v>
+      </c>
+      <c r="BB2" s="0">
+        <v>30.707776116671816</v>
+      </c>
+      <c r="BC2" s="0">
+        <v>36.341183850314486</v>
+      </c>
+      <c r="BD2" s="0">
+        <v>42.013925577110903</v>
+      </c>
+      <c r="BE2" s="0">
+        <v>47.418614201566577</v>
+      </c>
+      <c r="BF2" s="0">
+        <v>53.029574689131358</v>
+      </c>
+      <c r="BG2" s="0">
+        <v>58.774595208121539</v>
+      </c>
+      <c r="BH2" s="0">
+        <v>64.359827786530388</v>
+      </c>
+      <c r="BI2" s="0">
         <v>0.48071447969662284</v>
       </c>
-      <c r="AL2" s="0">
-        <v>0.52384160577134253</v>
-      </c>
-      <c r="AM2" s="0">
-        <v>0.55831789884380456</v>
-      </c>
-      <c r="AN2" s="0">
-        <v>0.58681446105878354</v>
-      </c>
-      <c r="AO2" s="0">
-        <v>0.61210026060507672</v>
-      </c>
-      <c r="AP2" s="0">
-        <v>0.63287300885397657</v>
-      </c>
-      <c r="AQ2" s="0">
-        <v>0.65103891313168705</v>
-      </c>
-      <c r="AR2" s="0">
-        <v>0.66827100078792734</v>
-      </c>
-      <c r="AS2" s="0">
-        <v>0.68444821478247697</v>
-      </c>
-      <c r="AT2" s="0">
-        <v>0.71930396831612731</v>
-      </c>
-      <c r="AU2" s="0">
-        <v>0.72910738041655399</v>
-      </c>
-      <c r="AV2" s="0">
-        <v>0.73698356065581794</v>
-      </c>
-      <c r="AW2" s="0">
-        <v>0.74631553040498677</v>
-      </c>
-      <c r="AX2" s="0">
-        <v>0.75523145419100124</v>
-      </c>
-      <c r="AY2" s="0">
-        <v>0.76169655653906543</v>
-      </c>
-      <c r="AZ2" s="0">
-        <v>0.76991829623029495</v>
-      </c>
-      <c r="BA2" s="0">
-        <v>0.77453898446315306</v>
-      </c>
-      <c r="BB2" s="0">
+      <c r="BJ2" s="0">
+        <v>0.56207957999249336</v>
+      </c>
+      <c r="BK2" s="0">
+        <v>0.61602372214398149</v>
+      </c>
+      <c r="BL2" s="0">
+        <v>0.65741494091847275</v>
+      </c>
+      <c r="BM2" s="0">
+        <v>0.69103834543482889</v>
+      </c>
+      <c r="BN2" s="0">
+        <v>0.7155321038893806</v>
+      </c>
+      <c r="BO2" s="0">
+        <v>0.73441919362420016</v>
+      </c>
+      <c r="BP2" s="0">
+        <v>0.75349413792045128</v>
+      </c>
+      <c r="BQ2" s="0">
+        <v>0.76918910115739914</v>
+      </c>
+      <c r="BR2" s="0">
         <v>0.78232756140441817</v>
       </c>
-      <c r="BC2" s="0">
-        <v>32.300715734879581</v>
-      </c>
-      <c r="BD2" s="0">
-        <v>35.13215441373351</v>
-      </c>
-      <c r="BE2" s="0">
-        <v>37.945565722809683</v>
-      </c>
-      <c r="BF2" s="0">
-        <v>40.859101789345821</v>
-      </c>
-      <c r="BG2" s="0">
-        <v>43.412713445299644</v>
-      </c>
-      <c r="BH2" s="0">
-        <v>46.123117774084733</v>
-      </c>
-      <c r="BI2" s="0">
-        <v>48.900867412446416</v>
-      </c>
-      <c r="BJ2" s="0">
-        <v>51.574117430362001</v>
-      </c>
-      <c r="BK2" s="0">
-        <v>54.429058108459699</v>
-      </c>
-      <c r="BL2" s="0">
-        <v>62.790978168410049</v>
-      </c>
-      <c r="BM2" s="0">
-        <v>65.676760570654409</v>
-      </c>
-      <c r="BN2" s="0">
-        <v>68.253723326707004</v>
-      </c>
-      <c r="BO2" s="0">
-        <v>71.233676432794269</v>
-      </c>
-      <c r="BP2" s="0">
-        <v>73.991908211948171</v>
-      </c>
-      <c r="BQ2" s="0">
-        <v>76.426205259220197</v>
-      </c>
-      <c r="BR2" s="0">
-        <v>79.28245833194832</v>
-      </c>
       <c r="BS2" s="0">
-        <v>81.886651899981416</v>
+        <v>301</v>
       </c>
       <c r="BT2" s="0">
-        <v>84.233693623181367</v>
+        <v>313</v>
+      </c>
+      <c r="BU2" s="0">
+        <v>323.5</v>
+      </c>
+      <c r="BV2" s="0">
+        <v>331.5</v>
+      </c>
+      <c r="BW2" s="0">
+        <v>341</v>
+      </c>
+      <c r="BX2" s="0">
+        <v>350.5</v>
+      </c>
+      <c r="BY2" s="0">
+        <v>358.5</v>
+      </c>
+      <c r="BZ2" s="0">
+        <v>366</v>
+      </c>
+      <c r="CA2" s="0">
+        <v>373</v>
+      </c>
+      <c r="CB2" s="0">
+        <v>379</v>
+      </c>
+      <c r="CC2" s="0">
+        <v>267</v>
+      </c>
+      <c r="CD2" s="0">
+        <v>280</v>
+      </c>
+      <c r="CE2" s="0">
+        <v>290.5</v>
+      </c>
+      <c r="CF2" s="0">
+        <v>299.5</v>
+      </c>
+      <c r="CG2" s="0">
+        <v>308.5</v>
+      </c>
+      <c r="CH2" s="0">
+        <v>318.5</v>
+      </c>
+      <c r="CI2" s="0">
+        <v>326.5</v>
+      </c>
+      <c r="CJ2" s="0">
+        <v>334.5</v>
+      </c>
+      <c r="CK2" s="0">
+        <v>342</v>
+      </c>
+      <c r="CL2" s="0">
+        <v>349</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/M_LH2_sweep_results.xlsx
+++ b/Graphs/M_LH2_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="27" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="54" uniqueCount="9">
   <si>
     <t>Tank maximum (kg)</t>
   </si>
@@ -136,28 +136,28 @@
         <v>16</v>
       </c>
       <c r="B2" s="0">
-        <v>32.300715734879581</v>
+        <v>32.048707061835628</v>
       </c>
       <c r="C2" s="0">
-        <v>15.739573118927872</v>
+        <v>15.563321743395381</v>
       </c>
       <c r="D2" s="0">
-        <v>0.48728248773545479</v>
+        <v>0.48561465251521985</v>
       </c>
       <c r="E2" s="0">
-        <v>29.009793597667041</v>
+        <v>28.5674114877324</v>
       </c>
       <c r="F2" s="0">
-        <v>13.945427835408932</v>
+        <v>13.847171961439827</v>
       </c>
       <c r="G2" s="0">
-        <v>0.48071447969662284</v>
+        <v>0.48471916916190211</v>
       </c>
       <c r="H2" s="0">
-        <v>301</v>
+        <v>298.03442074131243</v>
       </c>
       <c r="I2" s="0">
-        <v>267</v>
+        <v>263.89011797568827</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>22</v>
       </c>
       <c r="B3" s="0">
-        <v>38.212689027332118</v>
+        <v>37.76228996384247</v>
       </c>
       <c r="C3" s="0">
-        <v>21.020218160664072</v>
+        <v>20.797357464342479</v>
       </c>
       <c r="D3" s="0">
-        <v>0.55008476753962776</v>
+        <v>0.55074407522043878</v>
       </c>
       <c r="E3" s="0">
-        <v>35.019500604369739</v>
+        <v>34.4743825757416</v>
       </c>
       <c r="F3" s="0">
-        <v>19.683746191251011</v>
+        <v>19.362460148473065</v>
       </c>
       <c r="G3" s="0">
-        <v>0.56207957999249336</v>
+        <v>0.5616477715281184</v>
       </c>
       <c r="H3" s="0">
-        <v>313</v>
+        <v>310.5</v>
       </c>
       <c r="I3" s="0">
-        <v>280</v>
+        <v>277.38153980012333</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>28</v>
       </c>
       <c r="B4" s="0">
-        <v>44.164492468113117</v>
+        <v>43.605451253421897</v>
       </c>
       <c r="C4" s="0">
-        <v>27.370999145567637</v>
+        <v>26.976842537283254</v>
       </c>
       <c r="D4" s="0">
-        <v>0.61975124395077275</v>
+        <v>0.61865757059826942</v>
       </c>
       <c r="E4" s="0">
-        <v>40.806405041426089</v>
+        <v>40.332397135948774</v>
       </c>
       <c r="F4" s="0">
-        <v>25.137713520934231</v>
+        <v>24.825093231792621</v>
       </c>
       <c r="G4" s="0">
-        <v>0.61602372214398149</v>
+        <v>0.61551246627157952</v>
       </c>
       <c r="H4" s="0">
-        <v>323.5</v>
+        <v>321.04360644737528</v>
       </c>
       <c r="I4" s="0">
-        <v>290.5</v>
+        <v>288.50863213024502</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>34</v>
       </c>
       <c r="B5" s="0">
-        <v>49.692220190127664</v>
+        <v>49.619056260189971</v>
       </c>
       <c r="C5" s="0">
-        <v>32.762892727500571</v>
+        <v>33.138520723660307</v>
       </c>
       <c r="D5" s="0">
-        <v>0.65931633970360537</v>
+        <v>0.6678587466454452</v>
       </c>
       <c r="E5" s="0">
-        <v>46.709884740024407</v>
+        <v>46.301885746552017</v>
       </c>
       <c r="F5" s="0">
-        <v>30.707776116671816</v>
+        <v>30.478417878953735</v>
       </c>
       <c r="G5" s="0">
-        <v>0.65741494091847275</v>
+        <v>0.65825435373813868</v>
       </c>
       <c r="H5" s="0">
-        <v>331.5</v>
+        <v>330.56403731910865</v>
       </c>
       <c r="I5" s="0">
-        <v>299.5</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>40</v>
       </c>
       <c r="B6" s="0">
-        <v>55.715554375199069</v>
+        <v>55.437108546652652</v>
       </c>
       <c r="C6" s="0">
-        <v>38.534881011201108</v>
+        <v>38.987004617627072</v>
       </c>
       <c r="D6" s="0">
-        <v>0.69163596132778182</v>
+        <v>0.7032654775783963</v>
       </c>
       <c r="E6" s="0">
-        <v>52.589243549787625</v>
+        <v>52.200195823431272</v>
       </c>
       <c r="F6" s="0">
-        <v>36.341183850314486</v>
+        <v>36.132142223256373</v>
       </c>
       <c r="G6" s="0">
-        <v>0.69103834543482889</v>
+        <v>0.69218403596558198</v>
       </c>
       <c r="H6" s="0">
-        <v>341</v>
+        <v>339.44634901424382</v>
       </c>
       <c r="I6" s="0">
-        <v>308.5</v>
+        <v>306.0582833559447</v>
       </c>
     </row>
     <row r="7">

--- a/Graphs/M_LH2_sweep_results.xlsx
+++ b/Graphs/M_LH2_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="54" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="63" uniqueCount="9">
   <si>
     <t>Tank maximum (kg)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="16.86328125" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>16</v>
       </c>
       <c r="B2" s="0">
-        <v>32.048707061835628</v>
+        <v>32.057197810269713</v>
       </c>
       <c r="C2" s="0">
-        <v>15.563321743395381</v>
+        <v>15.583346893970335</v>
       </c>
       <c r="D2" s="0">
-        <v>0.48561465251521985</v>
+        <v>0.48611070082295582</v>
       </c>
       <c r="E2" s="0">
-        <v>28.5674114877324</v>
+        <v>28.497686478258203</v>
       </c>
       <c r="F2" s="0">
-        <v>13.847171961439827</v>
+        <v>13.719430962876739</v>
       </c>
       <c r="G2" s="0">
-        <v>0.48471916916190211</v>
+        <v>0.48142262261688268</v>
       </c>
       <c r="H2" s="0">
-        <v>298.03442074131243</v>
+        <v>298.09204816587464</v>
       </c>
       <c r="I2" s="0">
-        <v>263.89011797568827</v>
+        <v>263.01360038422456</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>22</v>
       </c>
       <c r="B3" s="0">
-        <v>37.76228996384247</v>
+        <v>37.765542040500343</v>
       </c>
       <c r="C3" s="0">
-        <v>20.797357464342479</v>
+        <v>20.803693632460682</v>
       </c>
       <c r="D3" s="0">
-        <v>0.55074407522043878</v>
+        <v>0.55086442583428263</v>
       </c>
       <c r="E3" s="0">
-        <v>34.4743825757416</v>
+        <v>34.445284859274906</v>
       </c>
       <c r="F3" s="0">
-        <v>19.362460148473065</v>
+        <v>19.312729923480877</v>
       </c>
       <c r="G3" s="0">
-        <v>0.5616477715281184</v>
+        <v>0.56067847899596146</v>
       </c>
       <c r="H3" s="0">
-        <v>310.5</v>
+        <v>309.93852720230421</v>
       </c>
       <c r="I3" s="0">
-        <v>277.38153980012333</v>
+        <v>275.95499164857324</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>28</v>
       </c>
       <c r="B4" s="0">
-        <v>43.605451253421897</v>
+        <v>43.608924539153833</v>
       </c>
       <c r="C4" s="0">
-        <v>26.976842537283254</v>
+        <v>27.057857923408093</v>
       </c>
       <c r="D4" s="0">
-        <v>0.61865757059826942</v>
+        <v>0.62046606765352508</v>
       </c>
       <c r="E4" s="0">
-        <v>40.332397135948774</v>
+        <v>40.29376805571183</v>
       </c>
       <c r="F4" s="0">
-        <v>24.825093231792621</v>
+        <v>24.899664860100664</v>
       </c>
       <c r="G4" s="0">
-        <v>0.61551246627157952</v>
+        <v>0.61795324839497157</v>
       </c>
       <c r="H4" s="0">
-        <v>321.04360644737528</v>
+        <v>320.99080519999774</v>
       </c>
       <c r="I4" s="0">
-        <v>288.50863213024502</v>
+        <v>287.00829784028087</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>34</v>
       </c>
       <c r="B5" s="0">
-        <v>49.619056260189971</v>
+        <v>49.597526863160461</v>
       </c>
       <c r="C5" s="0">
-        <v>33.138520723660307</v>
+        <v>33.176022991444803</v>
       </c>
       <c r="D5" s="0">
-        <v>0.6678587466454452</v>
+        <v>0.66890478396185815</v>
       </c>
       <c r="E5" s="0">
-        <v>46.301885746552017</v>
+        <v>46.25068490165981</v>
       </c>
       <c r="F5" s="0">
-        <v>30.478417878953735</v>
+        <v>30.488858089241411</v>
       </c>
       <c r="G5" s="0">
-        <v>0.65825435373813868</v>
+        <v>0.65920879126586185</v>
       </c>
       <c r="H5" s="0">
-        <v>330.56403731910865</v>
+        <v>330.40000000000003</v>
       </c>
       <c r="I5" s="0">
-        <v>297</v>
+        <v>296.58002128458247</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>40</v>
       </c>
       <c r="B6" s="0">
-        <v>55.437108546652652</v>
+        <v>55.430052284291115</v>
       </c>
       <c r="C6" s="0">
-        <v>38.987004617627072</v>
+        <v>38.971675053459002</v>
       </c>
       <c r="D6" s="0">
-        <v>0.7032654775783963</v>
+        <v>0.70307844657226815</v>
       </c>
       <c r="E6" s="0">
-        <v>52.200195823431272</v>
+        <v>52.104577223128238</v>
       </c>
       <c r="F6" s="0">
-        <v>36.132142223256373</v>
+        <v>36.100570410958703</v>
       </c>
       <c r="G6" s="0">
-        <v>0.69218403596558198</v>
+        <v>0.69284835104533471</v>
       </c>
       <c r="H6" s="0">
-        <v>339.44634901424382</v>
+        <v>339.55568032471541</v>
       </c>
       <c r="I6" s="0">
-        <v>306.0582833559447</v>
+        <v>305.44893534091079</v>
       </c>
     </row>
     <row r="7">

--- a/Graphs/M_LH2_sweep_results.xlsx
+++ b/Graphs/M_LH2_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="63" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="9">
   <si>
     <t>Tank maximum (kg)</t>
   </si>
@@ -136,28 +136,28 @@
         <v>16</v>
       </c>
       <c r="B2" s="0">
-        <v>32.057197810269713</v>
+        <v>33.782817911064008</v>
       </c>
       <c r="C2" s="0">
-        <v>15.583346893970335</v>
+        <v>16.868701081024867</v>
       </c>
       <c r="D2" s="0">
-        <v>0.48611070082295582</v>
+        <v>0.49932782769729517</v>
       </c>
       <c r="E2" s="0">
-        <v>28.497686478258203</v>
+        <v>30.189346566561234</v>
       </c>
       <c r="F2" s="0">
-        <v>13.719430962876739</v>
+        <v>14.599027220997048</v>
       </c>
       <c r="G2" s="0">
-        <v>0.48142262261688268</v>
+        <v>0.48358208710510603</v>
       </c>
       <c r="H2" s="0">
-        <v>298.09204816587464</v>
+        <v>328</v>
       </c>
       <c r="I2" s="0">
-        <v>263.01360038422456</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>22</v>
       </c>
       <c r="B3" s="0">
-        <v>37.765542040500343</v>
+        <v>40.113041564863003</v>
       </c>
       <c r="C3" s="0">
-        <v>20.803693632460682</v>
+        <v>23.259719739854454</v>
       </c>
       <c r="D3" s="0">
-        <v>0.55086442583428263</v>
+        <v>0.57985430255253423</v>
       </c>
       <c r="E3" s="0">
-        <v>34.445284859274906</v>
+        <v>36.229116810987243</v>
       </c>
       <c r="F3" s="0">
-        <v>19.312729923480877</v>
+        <v>19.83670447806329</v>
       </c>
       <c r="G3" s="0">
-        <v>0.56067847899596146</v>
+        <v>0.54753486212634894</v>
       </c>
       <c r="H3" s="0">
-        <v>309.93852720230421</v>
+        <v>332</v>
       </c>
       <c r="I3" s="0">
-        <v>275.95499164857324</v>
+        <v>236</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>28</v>
       </c>
       <c r="B4" s="0">
-        <v>43.608924539153833</v>
+        <v>45.510877943111481</v>
       </c>
       <c r="C4" s="0">
-        <v>27.057857923408093</v>
+        <v>29.276214066862799</v>
       </c>
       <c r="D4" s="0">
-        <v>0.62046606765352508</v>
+        <v>0.64327948371943111</v>
       </c>
       <c r="E4" s="0">
-        <v>40.29376805571183</v>
+        <v>42.836187149790256</v>
       </c>
       <c r="F4" s="0">
-        <v>24.899664860100664</v>
+        <v>25.733094478164645</v>
       </c>
       <c r="G4" s="0">
-        <v>0.61795324839497157</v>
+        <v>0.60073260928151129</v>
       </c>
       <c r="H4" s="0">
-        <v>320.99080519999774</v>
+        <v>334</v>
       </c>
       <c r="I4" s="0">
-        <v>287.00829784028087</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>34</v>
       </c>
       <c r="B5" s="0">
-        <v>49.597526863160461</v>
+        <v>50.720498710540021</v>
       </c>
       <c r="C5" s="0">
-        <v>33.176022991444803</v>
+        <v>34.418249560700339</v>
       </c>
       <c r="D5" s="0">
-        <v>0.66890478396185815</v>
+        <v>0.67858657615186313</v>
       </c>
       <c r="E5" s="0">
-        <v>46.25068490165981</v>
+        <v>48.869015880496924</v>
       </c>
       <c r="F5" s="0">
-        <v>30.488858089241411</v>
+        <v>31.357049891022605</v>
       </c>
       <c r="G5" s="0">
-        <v>0.65920879126586185</v>
+        <v>0.64165503082162234</v>
       </c>
       <c r="H5" s="0">
-        <v>330.40000000000003</v>
+        <v>337</v>
       </c>
       <c r="I5" s="0">
-        <v>296.58002128458247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>40</v>
       </c>
       <c r="B6" s="0">
-        <v>55.430052284291115</v>
+        <v>56.70591379027222</v>
       </c>
       <c r="C6" s="0">
-        <v>38.971675053459002</v>
+        <v>39.780004593144184</v>
       </c>
       <c r="D6" s="0">
-        <v>0.70307844657226815</v>
+        <v>0.70151421490660049</v>
       </c>
       <c r="E6" s="0">
-        <v>52.104577223128238</v>
+        <v>54.676534823666394</v>
       </c>
       <c r="F6" s="0">
-        <v>36.100570410958703</v>
+        <v>36.763864634939736</v>
       </c>
       <c r="G6" s="0">
-        <v>0.69284835104533471</v>
+        <v>0.67238834270504522</v>
       </c>
       <c r="H6" s="0">
-        <v>339.55568032471541</v>
+        <v>341</v>
       </c>
       <c r="I6" s="0">
-        <v>305.44893534091079</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>46</v>
       </c>
       <c r="B7" s="0">
-        <v>61.711308847826949</v>
+        <v>62.170871014040323</v>
       </c>
       <c r="C7" s="0">
-        <v>45.214551873129437</v>
+        <v>44.857815986581024</v>
       </c>
       <c r="D7" s="0">
-        <v>0.73267854332215454</v>
+        <v>0.72152465061090398</v>
       </c>
       <c r="E7" s="0">
-        <v>58.717037780328788</v>
+        <v>60.859160926056504</v>
       </c>
       <c r="F7" s="0">
-        <v>42.013925577110903</v>
+        <v>42.707093226622646</v>
       </c>
       <c r="G7" s="0">
-        <v>0.7155321038893806</v>
+        <v>0.70173647774262771</v>
       </c>
       <c r="H7" s="0">
-        <v>350.5</v>
+        <v>346</v>
       </c>
       <c r="I7" s="0">
-        <v>318.5</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>52</v>
       </c>
       <c r="B8" s="0">
-        <v>67.481650245666046</v>
+        <v>68.025980078107381</v>
       </c>
       <c r="C8" s="0">
-        <v>50.985164562908565</v>
+        <v>50.994501747530343</v>
       </c>
       <c r="D8" s="0">
-        <v>0.75554116381709335</v>
+        <v>0.74963273868275759</v>
       </c>
       <c r="E8" s="0">
-        <v>64.566142351980147</v>
+        <v>66.533409880661296</v>
       </c>
       <c r="F8" s="0">
-        <v>47.418614201566577</v>
+        <v>48.092705577134936</v>
       </c>
       <c r="G8" s="0">
-        <v>0.73441919362420016</v>
+        <v>0.72283542453929805</v>
       </c>
       <c r="H8" s="0">
-        <v>358.5</v>
+        <v>350</v>
       </c>
       <c r="I8" s="0">
-        <v>326.5</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>58</v>
       </c>
       <c r="B9" s="0">
-        <v>73.217604552841692</v>
+        <v>74.127510110379973</v>
       </c>
       <c r="C9" s="0">
-        <v>56.741082411367323</v>
+        <v>56.97963658136338</v>
       </c>
       <c r="D9" s="0">
-        <v>0.77496502047423388</v>
+        <v>0.76867058527282972</v>
       </c>
       <c r="E9" s="0">
-        <v>70.378217985194013</v>
+        <v>72.855904024864628</v>
       </c>
       <c r="F9" s="0">
-        <v>53.029574689131358</v>
+        <v>54.241725505497755</v>
       </c>
       <c r="G9" s="0">
-        <v>0.75349413792045128</v>
+        <v>0.7445069309274629</v>
       </c>
       <c r="H9" s="0">
-        <v>366</v>
+        <v>354</v>
       </c>
       <c r="I9" s="0">
-        <v>334.5</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10">

--- a/Graphs/M_LH2_sweep_results.xlsx
+++ b/Graphs/M_LH2_sweep_results.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="72" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" count="9" uniqueCount="9">
   <si>
     <t>Tank maximum (kg)</t>
   </si>
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="true"/>
-    <col min="2" max="2" width="30.265625" customWidth="true"/>
-    <col min="3" max="3" width="28.86328125" customWidth="true"/>
-    <col min="4" max="4" width="35.19921875" customWidth="true"/>
-    <col min="5" max="5" width="29" customWidth="true"/>
-    <col min="6" max="6" width="27.59765625" customWidth="true"/>
-    <col min="7" max="7" width="33.9296875" customWidth="true"/>
-    <col min="8" max="8" width="29.19921875" customWidth="true"/>
-    <col min="9" max="9" width="27.9296875" customWidth="true"/>
+    <col min="1" max="1" width="18.42578125" customWidth="true"/>
+    <col min="2" max="2" width="33.28515625" customWidth="true"/>
+    <col min="3" max="3" width="31.85546875" customWidth="true"/>
+    <col min="4" max="4" width="38.7109375" customWidth="true"/>
+    <col min="5" max="5" width="32" customWidth="true"/>
+    <col min="6" max="6" width="30.5703125" customWidth="true"/>
+    <col min="7" max="7" width="37.42578125" customWidth="true"/>
+    <col min="8" max="8" width="32.28515625" customWidth="true"/>
+    <col min="9" max="9" width="31" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>16</v>
       </c>
       <c r="B2" s="0">
-        <v>33.782817911064008</v>
+        <v>32.597407196161399</v>
       </c>
       <c r="C2" s="0">
-        <v>16.868701081024867</v>
+        <v>15.501639725230945</v>
       </c>
       <c r="D2" s="0">
-        <v>0.49932782769729517</v>
+        <v>0.47554824320679051</v>
       </c>
       <c r="E2" s="0">
-        <v>30.189346566561234</v>
+        <v>29.834186891008578</v>
       </c>
       <c r="F2" s="0">
-        <v>14.599027220997048</v>
+        <v>14.815249129564203</v>
       </c>
       <c r="G2" s="0">
-        <v>0.48358208710510603</v>
+        <v>0.49658632171501277</v>
       </c>
       <c r="H2" s="0">
-        <v>328</v>
+        <v>280.5</v>
       </c>
       <c r="I2" s="0">
-        <v>237</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>22</v>
       </c>
       <c r="B3" s="0">
-        <v>40.113041564863003</v>
+        <v>38.352861789346932</v>
       </c>
       <c r="C3" s="0">
-        <v>23.259719739854454</v>
+        <v>21.701605628224257</v>
       </c>
       <c r="D3" s="0">
-        <v>0.57985430255253423</v>
+        <v>0.56584058179074903</v>
       </c>
       <c r="E3" s="0">
-        <v>36.229116810987243</v>
+        <v>35.358243361392518</v>
       </c>
       <c r="F3" s="0">
-        <v>19.83670447806329</v>
+        <v>19.903971626709009</v>
       </c>
       <c r="G3" s="0">
-        <v>0.54753486212634894</v>
+        <v>0.56292309047349487</v>
       </c>
       <c r="H3" s="0">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="I3" s="0">
-        <v>236</v>
+        <v>253.5</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>28</v>
       </c>
       <c r="B4" s="0">
-        <v>45.510877943111481</v>
+        <v>44.084683388867056</v>
       </c>
       <c r="C4" s="0">
-        <v>29.276214066862799</v>
+        <v>27.620115003751266</v>
       </c>
       <c r="D4" s="0">
-        <v>0.64327948371943111</v>
+        <v>0.62652406415436168</v>
       </c>
       <c r="E4" s="0">
-        <v>42.836187149790256</v>
+        <v>41.409843570095433</v>
       </c>
       <c r="F4" s="0">
-        <v>25.733094478164645</v>
+        <v>25.557634818811671</v>
       </c>
       <c r="G4" s="0">
-        <v>0.60073260928151129</v>
+        <v>0.61718742732146892</v>
       </c>
       <c r="H4" s="0">
-        <v>334</v>
+        <v>291.5</v>
       </c>
       <c r="I4" s="0">
-        <v>236</v>
+        <v>260.5</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>34</v>
       </c>
       <c r="B5" s="0">
-        <v>50.720498710540021</v>
+        <v>49.842921094285622</v>
       </c>
       <c r="C5" s="0">
-        <v>34.418249560700339</v>
+        <v>33.295805580683037</v>
       </c>
       <c r="D5" s="0">
-        <v>0.67858657615186313</v>
+        <v>0.66801473207597228</v>
       </c>
       <c r="E5" s="0">
-        <v>48.869015880496924</v>
+        <v>47.035552786530197</v>
       </c>
       <c r="F5" s="0">
-        <v>31.357049891022605</v>
+        <v>30.862774596646975</v>
       </c>
       <c r="G5" s="0">
-        <v>0.64165503082162234</v>
+        <v>0.65615843267999818</v>
       </c>
       <c r="H5" s="0">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="I5" s="0">
-        <v>236</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>40</v>
       </c>
       <c r="B6" s="0">
-        <v>56.70591379027222</v>
+        <v>55.510466207112884</v>
       </c>
       <c r="C6" s="0">
-        <v>39.780004593144184</v>
+        <v>39.007391529528959</v>
       </c>
       <c r="D6" s="0">
-        <v>0.70151421490660049</v>
+        <v>0.70270336739724071</v>
       </c>
       <c r="E6" s="0">
-        <v>54.676534823666394</v>
+        <v>53.186949049256185</v>
       </c>
       <c r="F6" s="0">
-        <v>36.763864634939736</v>
+        <v>36.639759166959827</v>
       </c>
       <c r="G6" s="0">
-        <v>0.67238834270504522</v>
+        <v>0.68888627420662762</v>
       </c>
       <c r="H6" s="0">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="I6" s="0">
-        <v>235</v>
+        <v>273.5</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>46</v>
       </c>
       <c r="B7" s="0">
-        <v>62.170871014040323</v>
+        <v>61.458172021283971</v>
       </c>
       <c r="C7" s="0">
-        <v>44.857815986581024</v>
+        <v>44.825746118143144</v>
       </c>
       <c r="D7" s="0">
-        <v>0.72152465061090398</v>
+        <v>0.7293699868362381</v>
       </c>
       <c r="E7" s="0">
-        <v>60.859160926056504</v>
+        <v>58.831895673601551</v>
       </c>
       <c r="F7" s="0">
-        <v>42.707093226622646</v>
+        <v>42.016000492717481</v>
       </c>
       <c r="G7" s="0">
-        <v>0.70173647774262771</v>
+        <v>0.7141704344497346</v>
       </c>
       <c r="H7" s="0">
-        <v>346</v>
+        <v>307.5</v>
       </c>
       <c r="I7" s="0">
-        <v>237</v>
+        <v>279.5</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>52</v>
       </c>
       <c r="B8" s="0">
-        <v>68.025980078107381</v>
+        <v>67.508528696510226</v>
       </c>
       <c r="C8" s="0">
-        <v>50.994501747530343</v>
+        <v>50.824996513473721</v>
       </c>
       <c r="D8" s="0">
-        <v>0.74963273868275759</v>
+        <v>0.7528677856684064</v>
       </c>
       <c r="E8" s="0">
-        <v>66.533409880661296</v>
+        <v>64.731618236745291</v>
       </c>
       <c r="F8" s="0">
-        <v>48.092705577134936</v>
+        <v>47.62839112998536</v>
       </c>
       <c r="G8" s="0">
-        <v>0.72283542453929805</v>
+        <v>0.73578248817745173</v>
       </c>
       <c r="H8" s="0">
-        <v>350</v>
+        <v>313.5</v>
       </c>
       <c r="I8" s="0">
-        <v>240</v>
+        <v>285.5</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>58</v>
       </c>
       <c r="B9" s="0">
-        <v>74.127510110379973</v>
+        <v>73.300529854644552</v>
       </c>
       <c r="C9" s="0">
-        <v>56.97963658136338</v>
+        <v>56.489836683650964</v>
       </c>
       <c r="D9" s="0">
-        <v>0.76867058527282972</v>
+        <v>0.77066068684183719</v>
       </c>
       <c r="E9" s="0">
-        <v>72.855904024864628</v>
+        <v>70.662341844340901</v>
       </c>
       <c r="F9" s="0">
-        <v>54.241725505497755</v>
+        <v>53.163598152276499</v>
       </c>
       <c r="G9" s="0">
-        <v>0.7445069309274629</v>
+        <v>0.7523611129303972</v>
       </c>
       <c r="H9" s="0">
-        <v>354</v>
+        <v>317</v>
       </c>
       <c r="I9" s="0">
-        <v>242</v>
+        <v>291.5</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>64</v>
       </c>
       <c r="B10" s="0">
-        <v>78.862791042808595</v>
+        <v>79.400746093425212</v>
       </c>
       <c r="C10" s="0">
-        <v>62.469580639820578</v>
+        <v>62.637738852153305</v>
       </c>
       <c r="D10" s="0">
-        <v>0.79212997427279241</v>
+        <v>0.7888809858090241</v>
       </c>
       <c r="E10" s="0">
-        <v>76.411112845571239</v>
+        <v>76.387105122079021</v>
       </c>
       <c r="F10" s="0">
-        <v>58.774595208121539</v>
+        <v>58.515450115818716</v>
       </c>
       <c r="G10" s="0">
-        <v>0.76918910115739914</v>
+        <v>0.76603832573968478</v>
       </c>
       <c r="H10" s="0">
-        <v>373</v>
+        <v>323</v>
       </c>
       <c r="I10" s="0">
-        <v>342</v>
+        <v>296.5</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>70</v>
       </c>
       <c r="B11" s="0">
-        <v>84.233693623181367</v>
+        <v>85.486097537657372</v>
       </c>
       <c r="C11" s="0">
-        <v>67.833086750547366</v>
+        <v>68.511372690086148</v>
       </c>
       <c r="D11" s="0">
-        <v>0.80529635865189575</v>
+        <v>0.80143291907676906</v>
       </c>
       <c r="E11" s="0">
-        <v>82.26711030222809</v>
+        <v>82.618366810570834</v>
       </c>
       <c r="F11" s="0">
-        <v>64.359827786530388</v>
+        <v>64.4198641185978</v>
       </c>
       <c r="G11" s="0">
-        <v>0.78232756140441817</v>
+        <v>0.77972812348495157</v>
       </c>
       <c r="H11" s="0">
-        <v>379</v>
+        <v>326.5</v>
       </c>
       <c r="I11" s="0">
-        <v>349</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>

--- a/Graphs/M_LH2_sweep_results.xlsx
+++ b/Graphs/M_LH2_sweep_results.xlsx
@@ -91,15 +91,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="true"/>
-    <col min="2" max="2" width="33.28515625" customWidth="true"/>
-    <col min="3" max="3" width="31.85546875" customWidth="true"/>
-    <col min="4" max="4" width="38.7109375" customWidth="true"/>
-    <col min="5" max="5" width="32" customWidth="true"/>
-    <col min="6" max="6" width="30.5703125" customWidth="true"/>
-    <col min="7" max="7" width="37.42578125" customWidth="true"/>
-    <col min="8" max="8" width="32.28515625" customWidth="true"/>
-    <col min="9" max="9" width="31" customWidth="true"/>
+    <col min="1" max="1" width="16.86328125" customWidth="true"/>
+    <col min="2" max="2" width="30.265625" customWidth="true"/>
+    <col min="3" max="3" width="28.86328125" customWidth="true"/>
+    <col min="4" max="4" width="35.19921875" customWidth="true"/>
+    <col min="5" max="5" width="29" customWidth="true"/>
+    <col min="6" max="6" width="27.59765625" customWidth="true"/>
+    <col min="7" max="7" width="33.9296875" customWidth="true"/>
+    <col min="8" max="8" width="29.19921875" customWidth="true"/>
+    <col min="9" max="9" width="27.9296875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -136,28 +136,28 @@
         <v>16</v>
       </c>
       <c r="B2" s="0">
-        <v>32.597407196161399</v>
+        <v>34.33393724753568</v>
       </c>
       <c r="C2" s="0">
-        <v>15.501639725230945</v>
+        <v>15.534752777185458</v>
       </c>
       <c r="D2" s="0">
-        <v>0.47554824320679051</v>
+        <v>0.45246056882976526</v>
       </c>
       <c r="E2" s="0">
-        <v>29.834186891008578</v>
+        <v>29.847158362732991</v>
       </c>
       <c r="F2" s="0">
-        <v>14.815249129564203</v>
+        <v>14.584827266122947</v>
       </c>
       <c r="G2" s="0">
-        <v>0.49658632171501277</v>
+        <v>0.48865044668150009</v>
       </c>
       <c r="H2" s="0">
-        <v>280.5</v>
+        <v>338</v>
       </c>
       <c r="I2" s="0">
-        <v>246</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
@@ -165,28 +165,28 @@
         <v>22</v>
       </c>
       <c r="B3" s="0">
-        <v>38.352861789346932</v>
+        <v>40.264225817871036</v>
       </c>
       <c r="C3" s="0">
-        <v>21.701605628224257</v>
+        <v>21.184180140110044</v>
       </c>
       <c r="D3" s="0">
-        <v>0.56584058179074903</v>
+        <v>0.52612908133223246</v>
       </c>
       <c r="E3" s="0">
-        <v>35.358243361392518</v>
+        <v>35.856110152725762</v>
       </c>
       <c r="F3" s="0">
-        <v>19.903971626709009</v>
+        <v>19.80771824360334</v>
       </c>
       <c r="G3" s="0">
-        <v>0.56292309047349487</v>
+        <v>0.55242239493448142</v>
       </c>
       <c r="H3" s="0">
-        <v>286</v>
+        <v>342</v>
       </c>
       <c r="I3" s="0">
-        <v>253.5</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4">
@@ -194,28 +194,28 @@
         <v>28</v>
       </c>
       <c r="B4" s="0">
-        <v>44.084683388867056</v>
+        <v>45.675747208180894</v>
       </c>
       <c r="C4" s="0">
-        <v>27.620115003751266</v>
+        <v>26.324666404641626</v>
       </c>
       <c r="D4" s="0">
-        <v>0.62652406415436168</v>
+        <v>0.57633794767842716</v>
       </c>
       <c r="E4" s="0">
-        <v>41.409843570095433</v>
+        <v>42.043343719293858</v>
       </c>
       <c r="F4" s="0">
-        <v>25.557634818811671</v>
+        <v>25.177068083047473</v>
       </c>
       <c r="G4" s="0">
-        <v>0.61718742732146892</v>
+        <v>0.59883600722017782</v>
       </c>
       <c r="H4" s="0">
-        <v>291.5</v>
+        <v>346.5</v>
       </c>
       <c r="I4" s="0">
-        <v>260.5</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5">
@@ -223,28 +223,28 @@
         <v>34</v>
       </c>
       <c r="B5" s="0">
-        <v>49.842921094285622</v>
+        <v>51.492641380244649</v>
       </c>
       <c r="C5" s="0">
-        <v>33.295805580683037</v>
+        <v>31.678939398108426</v>
       </c>
       <c r="D5" s="0">
-        <v>0.66801473207597228</v>
+        <v>0.61521294206247834</v>
       </c>
       <c r="E5" s="0">
-        <v>47.035552786530197</v>
+        <v>47.836482884713313</v>
       </c>
       <c r="F5" s="0">
-        <v>30.862774596646975</v>
+        <v>30.423670679588941</v>
       </c>
       <c r="G5" s="0">
-        <v>0.65615843267999818</v>
+        <v>0.63599305059509648</v>
       </c>
       <c r="H5" s="0">
-        <v>297</v>
+        <v>351</v>
       </c>
       <c r="I5" s="0">
-        <v>267</v>
+        <v>323.5</v>
       </c>
     </row>
     <row r="6">
@@ -252,28 +252,28 @@
         <v>40</v>
       </c>
       <c r="B6" s="0">
-        <v>55.510466207112884</v>
+        <v>57.896448562698531</v>
       </c>
       <c r="C6" s="0">
-        <v>39.007391529528959</v>
+        <v>38.670462524730809</v>
       </c>
       <c r="D6" s="0">
-        <v>0.70270336739724071</v>
+        <v>0.66792460478560989</v>
       </c>
       <c r="E6" s="0">
-        <v>53.186949049256185</v>
+        <v>53.508517687503769</v>
       </c>
       <c r="F6" s="0">
-        <v>36.639759166959827</v>
+        <v>35.805629831806172</v>
       </c>
       <c r="G6" s="0">
-        <v>0.68888627420662762</v>
+        <v>0.6691575730225866</v>
       </c>
       <c r="H6" s="0">
-        <v>302</v>
+        <v>357.5</v>
       </c>
       <c r="I6" s="0">
-        <v>273.5</v>
+        <v>329</v>
       </c>
     </row>
     <row r="7">
@@ -281,28 +281,28 @@
         <v>46</v>
       </c>
       <c r="B7" s="0">
-        <v>61.458172021283971</v>
+        <v>63.64781193965802</v>
       </c>
       <c r="C7" s="0">
-        <v>44.825746118143144</v>
+        <v>43.378568863484894</v>
       </c>
       <c r="D7" s="0">
-        <v>0.7293699868362381</v>
+        <v>0.68154061454006309</v>
       </c>
       <c r="E7" s="0">
-        <v>58.831895673601551</v>
+        <v>59.481617341921748</v>
       </c>
       <c r="F7" s="0">
-        <v>42.016000492717481</v>
+        <v>41.582694050787438</v>
       </c>
       <c r="G7" s="0">
-        <v>0.7141704344497346</v>
+        <v>0.69908479138613777</v>
       </c>
       <c r="H7" s="0">
-        <v>307.5</v>
+        <v>362</v>
       </c>
       <c r="I7" s="0">
-        <v>279.5</v>
+        <v>335.5</v>
       </c>
     </row>
     <row r="8">
@@ -310,28 +310,28 @@
         <v>52</v>
       </c>
       <c r="B8" s="0">
-        <v>67.508528696510226</v>
+        <v>69.590544549252272</v>
       </c>
       <c r="C8" s="0">
-        <v>50.824996513473721</v>
+        <v>49.268454831115221</v>
       </c>
       <c r="D8" s="0">
-        <v>0.7528677856684064</v>
+        <v>0.70797627968330934</v>
       </c>
       <c r="E8" s="0">
-        <v>64.731618236745291</v>
+        <v>65.787843920968371</v>
       </c>
       <c r="F8" s="0">
-        <v>47.62839112998536</v>
+        <v>47.644760945303815</v>
       </c>
       <c r="G8" s="0">
-        <v>0.73578248817745173</v>
+        <v>0.72421830699513379</v>
       </c>
       <c r="H8" s="0">
-        <v>313.5</v>
+        <v>367.5</v>
       </c>
       <c r="I8" s="0">
-        <v>285.5</v>
+        <v>341.5</v>
       </c>
     </row>
     <row r="9">
@@ -339,28 +339,28 @@
         <v>58</v>
       </c>
       <c r="B9" s="0">
-        <v>73.300529854644552</v>
+        <v>75.791337363217821</v>
       </c>
       <c r="C9" s="0">
-        <v>56.489836683650964</v>
+        <v>55.34887193389558</v>
       </c>
       <c r="D9" s="0">
-        <v>0.77066068684183719</v>
+        <v>0.73027965806494477</v>
       </c>
       <c r="E9" s="0">
-        <v>70.662341844340901</v>
+        <v>71.731886192271702</v>
       </c>
       <c r="F9" s="0">
-        <v>53.163598152276499</v>
+        <v>53.294950776977103</v>
       </c>
       <c r="G9" s="0">
-        <v>0.7523611129303972</v>
+        <v>0.74297433966986681</v>
       </c>
       <c r="H9" s="0">
-        <v>317</v>
+        <v>372.5</v>
       </c>
       <c r="I9" s="0">
-        <v>291.5</v>
+        <v>347</v>
       </c>
     </row>
     <row r="10">
@@ -368,28 +368,28 @@
         <v>64</v>
       </c>
       <c r="B10" s="0">
-        <v>79.400746093425212</v>
+        <v>81.6612686502326</v>
       </c>
       <c r="C10" s="0">
-        <v>62.637738852153305</v>
+        <v>61.014290260603737</v>
       </c>
       <c r="D10" s="0">
-        <v>0.7888809858090241</v>
+        <v>0.74716314440248344</v>
       </c>
       <c r="E10" s="0">
-        <v>76.387105122079021</v>
+        <v>77.317068217496356</v>
       </c>
       <c r="F10" s="0">
-        <v>58.515450115818716</v>
+        <v>58.669591847231459</v>
       </c>
       <c r="G10" s="0">
-        <v>0.76603832573968478</v>
+        <v>0.75881811351396933</v>
       </c>
       <c r="H10" s="0">
-        <v>323</v>
+        <v>377</v>
       </c>
       <c r="I10" s="0">
-        <v>296.5</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11">
@@ -397,28 +397,28 @@
         <v>70</v>
       </c>
       <c r="B11" s="0">
-        <v>85.486097537657372</v>
+        <v>87.765059040311584</v>
       </c>
       <c r="C11" s="0">
-        <v>68.511372690086148</v>
+        <v>66.94212917516893</v>
       </c>
       <c r="D11" s="0">
-        <v>0.80143291907676906</v>
+        <v>0.76274237045088267</v>
       </c>
       <c r="E11" s="0">
-        <v>82.618366810570834</v>
+        <v>83.154115522057708</v>
       </c>
       <c r="F11" s="0">
-        <v>64.4198641185978</v>
+        <v>64.388964940595102</v>
       </c>
       <c r="G11" s="0">
-        <v>0.77972812348495157</v>
+        <v>0.77433287019347941</v>
       </c>
       <c r="H11" s="0">
-        <v>326.5</v>
+        <v>381.5</v>
       </c>
       <c r="I11" s="0">
-        <v>302</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
